--- a/OutListParameters.xlsx
+++ b/OutListParameters.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="524">
   <si>
     <t>Category</t>
   </si>
@@ -44,12 +44,6 @@
     <t>The worksheet is also used to generate the Fortran code used to verify if a particular channel is valid</t>
   </si>
   <si>
-    <t>Output names may not start with the letter "M" (case insensitive)</t>
-  </si>
-  <si>
-    <t>1.)</t>
-  </si>
-  <si>
     <t>2.)</t>
   </si>
   <si>
@@ -1563,13 +1557,43 @@
   </si>
   <si>
     <t>(N-m/m)</t>
+  </si>
+  <si>
+    <t>Pitch Actuator</t>
+  </si>
+  <si>
+    <t>PAngInp</t>
+  </si>
+  <si>
+    <t>Pitch angle input</t>
+  </si>
+  <si>
+    <t>(deg)</t>
+  </si>
+  <si>
+    <t>PAngAct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual pitch angle </t>
+  </si>
+  <si>
+    <t>PRatAct</t>
+  </si>
+  <si>
+    <t>Actual pitch rate</t>
+  </si>
+  <si>
+    <t>PAccAct</t>
+  </si>
+  <si>
+    <t>Actual pitch acceleration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1579,14 +1603,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1626,7 +1642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1647,7 +1663,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2001,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F27"/>
+  <dimension ref="A3:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2015,12 +2030,12 @@
   <sheetData>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -2030,17 +2045,17 @@
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <f>COUNTA(BeamDyn!B:B)-1</f>
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25"/>
@@ -2048,15 +2063,15 @@
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
         <v>10</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -2064,7 +2079,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -2072,47 +2087,39 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2143,10 +2150,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G354"/>
+  <dimension ref="A1:G359"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F82" sqref="F56:F82"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="D356" sqref="D356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2160,32 +2167,32 @@
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="6"/>
@@ -2194,111 +2201,111 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="6"/>
@@ -2307,253 +2314,253 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>7</v>
@@ -2561,7 +2568,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="6"/>
@@ -2572,763 +2579,763 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>84</v>
+        <v>100</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>85</v>
+        <v>101</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>86</v>
+        <v>93</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>86</v>
+        <v>102</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>87</v>
+        <v>103</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>88</v>
+        <v>95</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>88</v>
+        <v>104</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>89</v>
+        <v>78</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>89</v>
+        <v>96</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>89</v>
+        <v>105</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>90</v>
+        <v>79</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>90</v>
+        <v>97</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>90</v>
+        <v>106</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>91</v>
+        <v>80</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>91</v>
+        <v>107</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>92</v>
+        <v>81</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>92</v>
+        <v>108</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>111</v>
       </c>
+      <c r="E56" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="F56" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>111</v>
       </c>
+      <c r="E57" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="F57" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="D58" s="8" t="s">
         <v>111</v>
       </c>
+      <c r="E58" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="F58" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F60" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>111</v>
+      <c r="D61" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F61" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>120</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>111</v>
+        <v>118</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F62" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>122</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>111</v>
+        <v>120</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F63" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>123</v>
-      </c>
-      <c r="D64" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>111</v>
+      <c r="D64" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F64" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>124</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>111</v>
+        <v>122</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F65" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>126</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>111</v>
+        <v>124</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F66" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E67" s="9" t="s">
-        <v>111</v>
+      <c r="D67" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>128</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>111</v>
+        <v>126</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F68" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>130</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>111</v>
+        <v>128</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F69" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>131</v>
-      </c>
-      <c r="D70" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E70" s="9" t="s">
-        <v>111</v>
+      <c r="D70" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F70" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>111</v>
+        <v>130</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F71" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>134</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>111</v>
+        <v>132</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F72" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E73" s="9" t="s">
-        <v>111</v>
+      <c r="D73" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F73" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>136</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>111</v>
+        <v>134</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F74" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>138</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>111</v>
+        <v>136</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F75" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>139</v>
-      </c>
-      <c r="D76" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E76" s="9" t="s">
-        <v>111</v>
+      <c r="D76" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F76" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>140</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>111</v>
+        <v>138</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F77" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>142</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>111</v>
+        <v>140</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F78" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>143</v>
-      </c>
-      <c r="D79" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E79" s="9" t="s">
-        <v>111</v>
+      <c r="D79" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F79" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>144</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>111</v>
+        <v>142</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F80" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>146</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>111</v>
+        <v>144</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F81" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>147</v>
-      </c>
-      <c r="D82" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E82" s="9" t="s">
-        <v>111</v>
+      <c r="D82" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F82" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="6"/>
@@ -3337,2385 +3344,2385 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>149</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>151</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>152</v>
-      </c>
-      <c r="D86" s="9" t="s">
         <v>150</v>
       </c>
+      <c r="D86" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="E86" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F86" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>153</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>155</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>156</v>
-      </c>
-      <c r="D89" s="9" t="s">
         <v>154</v>
       </c>
+      <c r="D89" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="E89" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>157</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>159</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>160</v>
-      </c>
-      <c r="D92" s="9" t="s">
         <v>158</v>
       </c>
+      <c r="D92" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="E92" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F92" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>161</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>163</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>164</v>
-      </c>
-      <c r="D95" s="9" t="s">
         <v>162</v>
       </c>
+      <c r="D95" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="E95" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>165</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>167</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F97" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>168</v>
-      </c>
-      <c r="D98" s="9" t="s">
         <v>166</v>
       </c>
+      <c r="D98" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="E98" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>169</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>171</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F100" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>172</v>
-      </c>
-      <c r="D101" s="9" t="s">
         <v>170</v>
       </c>
+      <c r="D101" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="E101" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>173</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F102" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>175</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>176</v>
-      </c>
-      <c r="D104" s="9" t="s">
         <v>174</v>
       </c>
+      <c r="D104" s="8" t="s">
+        <v>172</v>
+      </c>
       <c r="E104" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>177</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>179</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F106" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>180</v>
-      </c>
-      <c r="D107" s="9" t="s">
         <v>178</v>
       </c>
+      <c r="D107" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="E107" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>181</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F108" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>183</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>184</v>
-      </c>
-      <c r="D110" s="9" t="s">
         <v>182</v>
       </c>
+      <c r="D110" s="8" t="s">
+        <v>180</v>
+      </c>
       <c r="E110" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F110" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B111" s="9" t="s">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B111" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B112" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9" t="s">
+      <c r="C112" s="8"/>
+      <c r="D112" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B113" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E111" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F111" s="9" t="s">
+      <c r="C113" s="8"/>
+      <c r="D113" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F113" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B112" s="9" t="s">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B114" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F112" s="9" t="s">
+      <c r="C114" s="8"/>
+      <c r="D114" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F114" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B113" s="9" t="s">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B115" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F113" s="9" t="s">
+      <c r="E115" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F115" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B114" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9" t="s">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B116" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E114" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F114" s="9" t="s">
+      <c r="C116" s="8"/>
+      <c r="D116" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B115" s="9" t="s">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B117" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F115" s="9" t="s">
+      <c r="C117" s="8"/>
+      <c r="D117" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F117" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B116" s="9" t="s">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B118" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F116" s="9" t="s">
+      <c r="C118" s="8"/>
+      <c r="D118" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B117" s="9" t="s">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B119" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9" t="s">
+      <c r="C119" s="8"/>
+      <c r="D119" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B120" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B121" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B122" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B123" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="E117" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F117" s="9" t="s">
+      <c r="E123" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F123" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B118" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9" t="s">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B124" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="E118" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F118" s="9" t="s">
+      <c r="E124" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F124" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B119" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9" t="s">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B125" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="E119" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F119" s="9" t="s">
+      <c r="E125" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F125" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B120" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9" t="s">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B126" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="E120" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F120" s="9" t="s">
+      <c r="E126" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F126" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B121" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9" t="s">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B127" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="E121" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F121" s="9" t="s">
+      <c r="E127" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B122" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9" t="s">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B128" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="E122" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F122" s="9" t="s">
+      <c r="E128" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F128" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B123" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9" t="s">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B129" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E123" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F123" s="9" t="s">
+      <c r="E129" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F129" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B124" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9" t="s">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B130" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E124" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F124" s="9" t="s">
+      <c r="E130" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F130" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B125" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9" t="s">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B131" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E125" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F125" s="9" t="s">
+      <c r="E131" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F131" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B126" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9" t="s">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B132" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E126" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F126" s="9" t="s">
+      <c r="E132" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F132" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B127" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9" t="s">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B133" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E127" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F127" s="9" t="s">
+      <c r="E133" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F133" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B128" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9" t="s">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B134" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E128" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F128" s="9" t="s">
+      <c r="E134" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F134" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B129" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9" t="s">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B135" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E129" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F129" s="9" t="s">
+      <c r="E135" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F135" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B130" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9" t="s">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B136" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E130" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F130" s="9" t="s">
+      <c r="E136" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F136" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B131" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9" t="s">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B137" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E131" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F131" s="9" t="s">
+      <c r="E137" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F137" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B132" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B133" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B134" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B135" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B136" s="9" t="s">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
         <v>212</v>
       </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F136" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B137" s="9" t="s">
+      <c r="D138" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F137" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B138" t="s">
-        <v>214</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>215</v>
-      </c>
       <c r="E138" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F138" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>216</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F139" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>217</v>
-      </c>
-      <c r="D140" s="9" t="s">
         <v>215</v>
       </c>
+      <c r="D140" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="E140" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F140" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>218</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F141" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>220</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F142" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>221</v>
-      </c>
-      <c r="D143" s="9" t="s">
         <v>219</v>
       </c>
+      <c r="D143" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="E143" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F143" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>222</v>
-      </c>
-      <c r="D144" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F144" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>224</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F145" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>225</v>
-      </c>
-      <c r="D146" s="9" t="s">
         <v>223</v>
       </c>
+      <c r="D146" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="E146" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F146" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>226</v>
-      </c>
-      <c r="D147" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F147" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>228</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F148" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>229</v>
-      </c>
-      <c r="D149" s="9" t="s">
         <v>227</v>
       </c>
+      <c r="D149" s="8" t="s">
+        <v>225</v>
+      </c>
       <c r="E149" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F149" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
-        <v>230</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F150" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
-        <v>232</v>
-      </c>
-      <c r="D151" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F151" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>233</v>
-      </c>
-      <c r="D152" s="9" t="s">
         <v>231</v>
       </c>
+      <c r="D152" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="E152" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F152" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>234</v>
-      </c>
-      <c r="D153" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F153" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>236</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F154" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>237</v>
-      </c>
-      <c r="D155" s="9" t="s">
         <v>235</v>
       </c>
+      <c r="D155" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="E155" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F155" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
-        <v>238</v>
-      </c>
-      <c r="D156" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F156" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>240</v>
-      </c>
-      <c r="D157" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F157" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>241</v>
-      </c>
-      <c r="D158" s="9" t="s">
         <v>239</v>
       </c>
+      <c r="D158" s="8" t="s">
+        <v>237</v>
+      </c>
       <c r="E158" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F158" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>242</v>
-      </c>
-      <c r="D159" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F159" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
-        <v>244</v>
-      </c>
-      <c r="D160" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F160" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>245</v>
-      </c>
-      <c r="D161" s="9" t="s">
         <v>243</v>
       </c>
+      <c r="D161" s="8" t="s">
+        <v>241</v>
+      </c>
       <c r="E161" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F161" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
-        <v>246</v>
-      </c>
-      <c r="D162" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F162" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
-        <v>248</v>
-      </c>
-      <c r="D163" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F163" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
-        <v>249</v>
-      </c>
-      <c r="D164" s="9" t="s">
         <v>247</v>
       </c>
+      <c r="D164" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="E164" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F164" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B165" s="9" t="s">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B165" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B166" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9" t="s">
+      <c r="C166" s="8"/>
+      <c r="D166" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B167" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E165" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F165" s="9" t="s">
+      <c r="C167" s="8"/>
+      <c r="D167" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F167" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B166" s="9" t="s">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B168" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E166" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F166" s="9" t="s">
+      <c r="C168" s="8"/>
+      <c r="D168" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F168" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B167" s="9" t="s">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B169" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E167" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F167" s="9" t="s">
+      <c r="E169" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F169" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B168" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9" t="s">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B170" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E168" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F168" s="9" t="s">
+      <c r="C170" s="8"/>
+      <c r="D170" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F170" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B169" s="9" t="s">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B171" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E169" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F169" s="9" t="s">
+      <c r="C171" s="8"/>
+      <c r="D171" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F171" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B170" s="9" t="s">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B172" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E170" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F170" s="9" t="s">
+      <c r="E172" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F172" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B171" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9" t="s">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B173" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E171" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F171" s="9" t="s">
+      <c r="C173" s="8"/>
+      <c r="D173" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F173" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B172" s="9" t="s">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B174" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C172" s="9"/>
-      <c r="D172" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E172" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F172" s="9" t="s">
+      <c r="C174" s="8"/>
+      <c r="D174" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F174" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B173" s="9" t="s">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B175" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C173" s="9"/>
-      <c r="D173" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E173" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F173" s="9" t="s">
+      <c r="E175" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F175" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B174" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C174" s="9"/>
-      <c r="D174" s="9" t="s">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B176" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="E174" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F174" s="9" t="s">
+      <c r="C176" s="8"/>
+      <c r="D176" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F176" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B175" s="9" t="s">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B177" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C175" s="9"/>
-      <c r="D175" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E175" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F175" s="9" t="s">
+      <c r="C177" s="8"/>
+      <c r="D177" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F177" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B176" s="9" t="s">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B178" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C178" s="8"/>
+      <c r="D178" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C176" s="9"/>
-      <c r="D176" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E176" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F176" s="9" t="s">
+      <c r="E178" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F178" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B177" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C177" s="9"/>
-      <c r="D177" s="9" t="s">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B179" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E177" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F177" s="9" t="s">
+      <c r="C179" s="8"/>
+      <c r="D179" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F179" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B178" s="9" t="s">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B180" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C178" s="9"/>
-      <c r="D178" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E178" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F178" s="9" t="s">
+      <c r="C180" s="8"/>
+      <c r="D180" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F180" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B179" s="9" t="s">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B181" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E179" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F179" s="9" t="s">
+      <c r="E181" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F181" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B180" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C180" s="9"/>
-      <c r="D180" s="9" t="s">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B182" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="E180" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F180" s="9" t="s">
+      <c r="C182" s="8"/>
+      <c r="D182" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F182" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B181" s="9" t="s">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B183" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C181" s="9"/>
-      <c r="D181" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E181" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F181" s="9" t="s">
+      <c r="C183" s="8"/>
+      <c r="D183" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F183" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B182" s="9" t="s">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B184" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C184" s="8"/>
+      <c r="D184" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C182" s="9"/>
-      <c r="D182" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E182" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F182" s="9" t="s">
+      <c r="E184" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F184" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B183" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C183" s="9"/>
-      <c r="D183" s="9" t="s">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B185" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="E183" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F183" s="9" t="s">
+      <c r="C185" s="8"/>
+      <c r="D185" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F185" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B184" s="9" t="s">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B186" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C184" s="9"/>
-      <c r="D184" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E184" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F184" s="9" t="s">
+      <c r="C186" s="8"/>
+      <c r="D186" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F186" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B185" s="9" t="s">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B187" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C187" s="8"/>
+      <c r="D187" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C185" s="9"/>
-      <c r="D185" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E185" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F185" s="9" t="s">
+      <c r="E187" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F187" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B186" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C186" s="9"/>
-      <c r="D186" s="9" t="s">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B188" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E186" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F186" s="9" t="s">
+      <c r="C188" s="8"/>
+      <c r="D188" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F188" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B187" s="9" t="s">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B189" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C187" s="9"/>
-      <c r="D187" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E187" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F187" s="9" t="s">
+      <c r="C189" s="8"/>
+      <c r="D189" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F189" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B188" s="9" t="s">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B190" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C188" s="9"/>
-      <c r="D188" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E188" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F188" s="9" t="s">
+      <c r="E190" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F190" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B189" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C189" s="9"/>
-      <c r="D189" s="9" t="s">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B191" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="E189" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F189" s="9" t="s">
+      <c r="C191" s="8"/>
+      <c r="D191" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F191" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B190" s="9" t="s">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B192" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C190" s="9"/>
-      <c r="D190" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E190" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F190" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B191" s="9" t="s">
+      <c r="C192" s="8"/>
+      <c r="D192" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C191" s="9"/>
-      <c r="D191" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E191" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F191" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B192" s="9" t="s">
+      <c r="E192" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B193" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C192" s="9"/>
-      <c r="D192" s="9" t="s">
+      <c r="C193" s="8"/>
+      <c r="D193" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B194" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E192" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F192" s="9" t="s">
+      <c r="C194" s="8"/>
+      <c r="D194" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F194" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B193" s="9" t="s">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B195" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C193" s="9"/>
-      <c r="D193" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E193" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F193" s="9" t="s">
+      <c r="C195" s="8"/>
+      <c r="D195" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F195" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B194" s="9" t="s">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B196" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C196" s="8"/>
+      <c r="D196" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C194" s="9"/>
-      <c r="D194" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E194" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F194" s="9" t="s">
+      <c r="E196" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F196" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B195" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C195" s="9"/>
-      <c r="D195" s="9" t="s">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B197" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E195" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F195" s="9" t="s">
+      <c r="C197" s="8"/>
+      <c r="D197" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F197" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B196" s="9" t="s">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B198" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C196" s="9"/>
-      <c r="D196" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="E196" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F196" s="9" t="s">
+      <c r="C198" s="8"/>
+      <c r="D198" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F198" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B197" s="9" t="s">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B199" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C199" s="8"/>
+      <c r="D199" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C197" s="9"/>
-      <c r="D197" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="E197" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F197" s="9" t="s">
+      <c r="E199" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F199" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B198" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C198" s="9"/>
-      <c r="D198" s="9" t="s">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B200" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E198" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F198" s="9" t="s">
+      <c r="C200" s="8"/>
+      <c r="D200" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F200" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B199" s="9" t="s">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B201" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C199" s="9"/>
-      <c r="D199" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="E199" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F199" s="9" t="s">
+      <c r="C201" s="8"/>
+      <c r="D201" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F201" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B200" s="9" t="s">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B202" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C202" s="8"/>
+      <c r="D202" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C200" s="9"/>
-      <c r="D200" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="E200" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F200" s="9" t="s">
+      <c r="E202" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F202" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B201" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C201" s="9"/>
-      <c r="D201" s="9" t="s">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B203" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="E201" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F201" s="9" t="s">
+      <c r="C203" s="8"/>
+      <c r="D203" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F203" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B202" s="9" t="s">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B204" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C202" s="9"/>
-      <c r="D202" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="E202" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F202" s="9" t="s">
+      <c r="C204" s="8"/>
+      <c r="D204" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F204" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B203" s="9" t="s">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B205" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C205" s="8"/>
+      <c r="D205" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C203" s="9"/>
-      <c r="D203" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="E203" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F203" s="9" t="s">
+      <c r="E205" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F205" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B204" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C204" s="9"/>
-      <c r="D204" s="9" t="s">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B206" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="E204" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F204" s="9" t="s">
+      <c r="C206" s="8"/>
+      <c r="D206" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F206" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B205" s="9" t="s">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B207" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C205" s="9"/>
-      <c r="D205" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="E205" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F205" s="9" t="s">
+      <c r="C207" s="8"/>
+      <c r="D207" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F207" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B206" s="9" t="s">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B208" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C208" s="8"/>
+      <c r="D208" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C206" s="9"/>
-      <c r="D206" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="E206" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F206" s="9" t="s">
+      <c r="E208" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F208" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B207" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C207" s="9"/>
-      <c r="D207" s="9" t="s">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B209" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="E207" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F207" s="9" t="s">
+      <c r="C209" s="8"/>
+      <c r="D209" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F209" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B208" s="9" t="s">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B210" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C208" s="9"/>
-      <c r="D208" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E208" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F208" s="9" t="s">
+      <c r="C210" s="8"/>
+      <c r="D210" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E210" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F210" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B209" s="9" t="s">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B211" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C211" s="8"/>
+      <c r="D211" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C209" s="9"/>
-      <c r="D209" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E209" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F209" s="9" t="s">
+      <c r="E211" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F211" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B210" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="C210" s="9"/>
-      <c r="D210" s="9" t="s">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B212" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="E210" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F210" s="9" t="s">
+      <c r="C212" s="8"/>
+      <c r="D212" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F212" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B211" s="9" t="s">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B213" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C211" s="9"/>
-      <c r="D211" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E211" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F211" s="9" t="s">
+      <c r="C213" s="8"/>
+      <c r="D213" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F213" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B212" s="9" t="s">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B214" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C214" s="8"/>
+      <c r="D214" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C212" s="9"/>
-      <c r="D212" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E212" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F212" s="9" t="s">
+      <c r="E214" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F214" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B213" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C213" s="9"/>
-      <c r="D213" s="9" t="s">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B215" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="E213" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F213" s="9" t="s">
+      <c r="C215" s="8"/>
+      <c r="D215" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F215" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B214" s="9" t="s">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B216" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C214" s="9"/>
-      <c r="D214" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="E214" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F214" s="9" t="s">
+      <c r="C216" s="8"/>
+      <c r="D216" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F216" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B215" s="9" t="s">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B217" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C217" s="8"/>
+      <c r="D217" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C215" s="9"/>
-      <c r="D215" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="E215" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F215" s="9" t="s">
+      <c r="E217" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F217" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B216" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C216" s="9"/>
-      <c r="D216" s="9" t="s">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B218" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="E216" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F216" s="9" t="s">
+      <c r="C218" s="8"/>
+      <c r="D218" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E218" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F218" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B217" s="9" t="s">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B219" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C217" s="9"/>
-      <c r="D217" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="E217" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F217" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B218" s="9" t="s">
+      <c r="C219" s="8"/>
+      <c r="D219" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C218" s="9"/>
-      <c r="D218" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="E218" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F218" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B219" s="9" t="s">
+      <c r="E219" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B220" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C219" s="9"/>
-      <c r="D219" s="9" t="s">
+      <c r="C220" s="8"/>
+      <c r="D220" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F220" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B221" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E219" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F219" s="9" t="s">
+      <c r="C221" s="8"/>
+      <c r="D221" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E221" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F221" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B220" s="9" t="s">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B222" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C220" s="9"/>
-      <c r="D220" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="E220" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F220" s="9" t="s">
+      <c r="C222" s="8"/>
+      <c r="D222" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F222" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B221" s="9" t="s">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B223" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C223" s="8"/>
+      <c r="D223" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="C221" s="9"/>
-      <c r="D221" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="E221" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F221" s="9" t="s">
+      <c r="E223" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F223" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B222" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C222" s="9"/>
-      <c r="D222" s="9" t="s">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B224" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="E222" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F222" s="9" t="s">
+      <c r="C224" s="8"/>
+      <c r="D224" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E224" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F224" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B223" s="9" t="s">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B225" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C223" s="9"/>
-      <c r="D223" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="E223" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F223" s="9" t="s">
+      <c r="C225" s="8"/>
+      <c r="D225" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F225" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B224" s="9" t="s">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B226" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C226" s="8"/>
+      <c r="D226" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C224" s="9"/>
-      <c r="D224" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="E224" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F224" s="9" t="s">
+      <c r="E226" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F226" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B225" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C225" s="9"/>
-      <c r="D225" s="9" t="s">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B227" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="E225" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F225" s="9" t="s">
+      <c r="C227" s="8"/>
+      <c r="D227" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F227" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B226" s="9" t="s">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B228" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C226" s="9"/>
-      <c r="D226" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="E226" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F226" s="9" t="s">
+      <c r="C228" s="8"/>
+      <c r="D228" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E228" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F228" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B227" s="9" t="s">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B229" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C229" s="8"/>
+      <c r="D229" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C227" s="9"/>
-      <c r="D227" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="E227" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F227" s="9" t="s">
+      <c r="E229" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F229" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B228" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C228" s="9"/>
-      <c r="D228" s="9" t="s">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B230" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="E228" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F228" s="9" t="s">
+      <c r="C230" s="8"/>
+      <c r="D230" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E230" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F230" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B229" s="9" t="s">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B231" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C229" s="9"/>
-      <c r="D229" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="E229" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F229" s="9" t="s">
+      <c r="C231" s="8"/>
+      <c r="D231" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E231" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F231" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B230" s="9" t="s">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B232" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C232" s="8"/>
+      <c r="D232" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C230" s="9"/>
-      <c r="D230" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="E230" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F230" s="9" t="s">
+      <c r="E232" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F232" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B231" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C231" s="9"/>
-      <c r="D231" s="9" t="s">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B233" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="E231" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F231" s="9" t="s">
+      <c r="C233" s="8"/>
+      <c r="D233" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F233" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B232" s="9" t="s">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B234" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C232" s="9"/>
-      <c r="D232" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E232" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F232" s="9" t="s">
+      <c r="C234" s="8"/>
+      <c r="D234" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E234" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F234" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B233" s="9" t="s">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B235" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C235" s="8"/>
+      <c r="D235" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C233" s="9"/>
-      <c r="D233" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E233" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F233" s="9" t="s">
+      <c r="E235" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F235" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B234" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C234" s="9"/>
-      <c r="D234" s="9" t="s">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B236" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="E234" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F234" s="9" t="s">
+      <c r="C236" s="8"/>
+      <c r="D236" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F236" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B235" s="9" t="s">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B237" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C235" s="9"/>
-      <c r="D235" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="E235" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F235" s="9" t="s">
+      <c r="C237" s="8"/>
+      <c r="D237" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F237" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B236" s="9" t="s">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B238" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C238" s="8"/>
+      <c r="D238" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C236" s="9"/>
-      <c r="D236" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="E236" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F236" s="9" t="s">
+      <c r="E238" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F238" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B237" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="C237" s="9"/>
-      <c r="D237" s="9" t="s">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B239" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="E237" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F237" s="9" t="s">
+      <c r="C239" s="8"/>
+      <c r="D239" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E239" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F239" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B238" s="9" t="s">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B240" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C238" s="9"/>
-      <c r="D238" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="E238" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F238" s="9" t="s">
+      <c r="C240" s="8"/>
+      <c r="D240" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E240" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F240" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B239" s="9" t="s">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B241" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C241" s="8"/>
+      <c r="D241" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C239" s="9"/>
-      <c r="D239" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="E239" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F239" s="9" t="s">
+      <c r="E241" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F241" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B240" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="C240" s="9"/>
-      <c r="D240" s="9" t="s">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B242" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="E240" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F240" s="9" t="s">
+      <c r="C242" s="8"/>
+      <c r="D242" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E242" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F242" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B241" s="9" t="s">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B243" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C241" s="9"/>
-      <c r="D241" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="E241" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F241" s="9" t="s">
+      <c r="C243" s="8"/>
+      <c r="D243" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F243" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B242" s="9" t="s">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B244" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C244" s="8"/>
+      <c r="D244" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C242" s="9"/>
-      <c r="D242" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="E242" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F242" s="9" t="s">
+      <c r="E244" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F244" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B243" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="C243" s="9"/>
-      <c r="D243" s="9" t="s">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B245" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="E243" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F243" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B244" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C244" s="9"/>
-      <c r="D244" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="E244" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F244" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B245" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="C245" s="9"/>
-      <c r="D245" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="E245" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F245" s="9" t="s">
+      <c r="C245" s="8"/>
+      <c r="D245" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F245" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B246" s="3"/>
       <c r="C246" s="6"/>
@@ -5726,1514 +5733,1569 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D247" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E247" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F247" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D248" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E248" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F248" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D249" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E249" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F249" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D250" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E250" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F250" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D251" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E251" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D252" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E252" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D253" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E253" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F253" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D254" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E254" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F254" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D255" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E255" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F255" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D256" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E256" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F256" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D257" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E257" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F257" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D258" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E258" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F258" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D259" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E259" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F259" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D260" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E260" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F260" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D261" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E261" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F261" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D262" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E262" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F262" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D263" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E263" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F263" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D264" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E264" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F264" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D265" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E265" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D266" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E266" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F266" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D267" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E267" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F267" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D268" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E268" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F268" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="269" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D269" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E269" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F269" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D270" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E270" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F270" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D271" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E271" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F271" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D272" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E272" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F272" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D273" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E273" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F273" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D274" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E274" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F274" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D275" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E275" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F275" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D276" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E276" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F276" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D277" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E277" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F277" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="278" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D278" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E278" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F278" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D279" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E279" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F279" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="280" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D280" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E280" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F280" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D281" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E281" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F281" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D282" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E282" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F282" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D283" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E283" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F283" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D284" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E284" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F284" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D285" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E285" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F285" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D286" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E286" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F286" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D287" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E287" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F287" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="288" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D288" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E288" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F288" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B289" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D289" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E289" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F289" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="290" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B290" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D290" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E290" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F290" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D291" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E291" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F291" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D292" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E292" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F292" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D293" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E293" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F293" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D294" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E294" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F294" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D295" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E295" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F295" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B296" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D296" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E296" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F296" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B297" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D297" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E297" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F297" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="298" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B298" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D298" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E298" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F298" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="299" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B299" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D299" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E299" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F299" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="300" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B300" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D300" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E300" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F300" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="301" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B301" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D301" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E301" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F301" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="302" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B302" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D302" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E302" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F302" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B303" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D303" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E303" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F303" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D304" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E304" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F304" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="305" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D305" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E305" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F305" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D306" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E306" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F306" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="307" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D307" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E307" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F307" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="308" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D308" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E308" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F308" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="309" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B309" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D309" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E309" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F309" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D310" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E310" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F310" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="311" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D311" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E311" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F311" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="312" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B312" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D312" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E312" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F312" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="313" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D313" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E313" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F313" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="314" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D314" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E314" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F314" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="315" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D315" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E315" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F315" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="316" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D316" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E316" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F316" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B317" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D317" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E317" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F317" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="318" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D318" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E318" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F318" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B319" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D319" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E319" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F319" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="320" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B320" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D320" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E320" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F320" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="321" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B321" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D321" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E321" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F321" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="322" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B322" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D322" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E322" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F322" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="323" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D323" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E323" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F323" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B324" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D324" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E324" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F324" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="325" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B325" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D325" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E325" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F325" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="326" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B326" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D326" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E326" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F326" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="327" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B327" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D327" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E327" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F327" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B328" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D328" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E328" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F328" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D329" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E329" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F329" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="330" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D330" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E330" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F330" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="331" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D331" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E331" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F331" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="332" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D332" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E332" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F332" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="333" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D333" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E333" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F333" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="334" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D334" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E334" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F334" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D335" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E335" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F335" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="336" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B336" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D336" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E336" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F336" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D337" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E337" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F337" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D338" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E338" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F338" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D339" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E339" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F339" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D340" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E340" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F340" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="341" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D341" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E341" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F341" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="342" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B342" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D342" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E342" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F342" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="343" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D343" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E343" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F343" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D344" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E344" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F344" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="345" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D345" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E345" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F345" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="346" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D346" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E346" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F346" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="347" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D347" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E347" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F347" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="348" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D348" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E348" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F348" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="349" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D349" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E349" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F349" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="350" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D350" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E350" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F350" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="351" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D351" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E351" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F351" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="352" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
+        <v>504</v>
+      </c>
+      <c r="D352" t="s">
+        <v>505</v>
+      </c>
+      <c r="E352" t="s">
+        <v>109</v>
+      </c>
+      <c r="F352" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B353" t="s">
         <v>506</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D353" t="s">
+        <v>505</v>
+      </c>
+      <c r="E353" t="s">
+        <v>109</v>
+      </c>
+      <c r="F353" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B354" t="s">
         <v>507</v>
       </c>
-      <c r="E352" t="s">
-        <v>111</v>
-      </c>
-      <c r="F352" t="s">
+      <c r="D354" t="s">
+        <v>505</v>
+      </c>
+      <c r="E354" t="s">
+        <v>109</v>
+      </c>
+      <c r="F354" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A355" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B355" s="3"/>
+      <c r="C355" s="6"/>
+      <c r="D355" s="6"/>
+      <c r="E355" s="6"/>
+      <c r="F355" s="3"/>
+      <c r="G355" s="3"/>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B356" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B353" t="s">
-        <v>508</v>
-      </c>
-      <c r="D353" t="s">
-        <v>507</v>
-      </c>
-      <c r="E353" t="s">
-        <v>111</v>
-      </c>
-      <c r="F353" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B354" t="s">
-        <v>509</v>
-      </c>
-      <c r="D354" t="s">
-        <v>507</v>
-      </c>
-      <c r="E354" t="s">
-        <v>111</v>
-      </c>
-      <c r="F354" t="s">
-        <v>515</v>
+      <c r="D356" t="s">
+        <v>516</v>
+      </c>
+      <c r="F356" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B357" t="s">
+        <v>518</v>
+      </c>
+      <c r="D357" t="s">
+        <v>519</v>
+      </c>
+      <c r="F357" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B358" t="s">
+        <v>520</v>
+      </c>
+      <c r="D358" t="s">
+        <v>521</v>
+      </c>
+      <c r="F358" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B359" t="s">
+        <v>522</v>
+      </c>
+      <c r="D359" t="s">
+        <v>523</v>
+      </c>
+      <c r="F359" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
